--- a/Output/5.3_CLR_confidence_set.xlsx
+++ b/Output/5.3_CLR_confidence_set.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clairemcfarlane/Documents/GitHub/Econometrics-Project/Output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520D2802-68DD-7F45-9B1B-C967595B5324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3555EB-9983-3043-8F77-A58243B68ADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="500" windowWidth="26620" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5300" yWindow="500" windowWidth="23500" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Specification 1</t>
   </si>
@@ -76,16 +76,25 @@
     <t>[ .0482344, .1128692]</t>
   </si>
   <si>
-    <t>[-.0006632, .1155355]</t>
-  </si>
-  <si>
     <t>Specification 3 (robust)</t>
   </si>
   <si>
     <t xml:space="preserve">Specification 4 (robust) </t>
   </si>
   <si>
-    <t>&lt;-- if partialling out ageq and ageqsq change to [.0027553, .1171518]</t>
+    <t>[ .0573405, .1208905]</t>
+  </si>
+  <si>
+    <t>[ .0188649, .1331343]</t>
+  </si>
+  <si>
+    <t>[ .0027553, .1171518]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heteroskedasticity robust for all specs and partial out for spec 2 &amp; 4 </t>
+  </si>
+  <si>
+    <t>heteroskedasticity robust for specs 3 &amp; 4. Partial out for spec 4</t>
   </si>
 </sst>
 </file>
@@ -176,20 +185,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D8" sqref="A3:D8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -516,7 +530,7 @@
     <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="5" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -524,27 +538,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -555,10 +572,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -569,12 +589,15 @@
         <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>19</v>
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -582,13 +605,16 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>20</v>
+      <c r="E7" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>8</v>
@@ -596,11 +622,19 @@
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
